--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6114587735557</v>
+        <v>4.408429333333333</v>
       </c>
       <c r="H2">
-        <v>1.6114587735557</v>
+        <v>13.225288</v>
       </c>
       <c r="I2">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="J2">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.99005198478535</v>
+        <v>19.68532233333334</v>
       </c>
       <c r="N2">
-        <v>4.99005198478535</v>
+        <v>59.055967</v>
       </c>
       <c r="O2">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="P2">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="Q2">
-        <v>8.041263051381387</v>
+        <v>86.78135241038845</v>
       </c>
       <c r="R2">
-        <v>8.041263051381387</v>
+        <v>781.032171693496</v>
       </c>
       <c r="S2">
-        <v>0.005223897642953548</v>
+        <v>0.03013899121136198</v>
       </c>
       <c r="T2">
-        <v>0.005223897642953548</v>
+        <v>0.03013899121136198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6114587735557</v>
+        <v>4.408429333333333</v>
       </c>
       <c r="H3">
-        <v>1.6114587735557</v>
+        <v>13.225288</v>
       </c>
       <c r="I3">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="J3">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.46456593499559</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N3">
-        <v>1.46456593499559</v>
+        <v>4.453463</v>
       </c>
       <c r="O3">
-        <v>0.06388520406425827</v>
+        <v>0.03800378711503639</v>
       </c>
       <c r="P3">
-        <v>0.06388520406425827</v>
+        <v>0.0380037871150364</v>
       </c>
       <c r="Q3">
-        <v>2.36008762539945</v>
+        <v>6.544258974704888</v>
       </c>
       <c r="R3">
-        <v>2.36008762539945</v>
+        <v>58.898330772344</v>
       </c>
       <c r="S3">
-        <v>0.001533198964479851</v>
+        <v>0.002272808134987033</v>
       </c>
       <c r="T3">
-        <v>0.001533198964479851</v>
+        <v>0.002272808134987033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.6114587735557</v>
+        <v>4.408429333333333</v>
       </c>
       <c r="H4">
-        <v>1.6114587735557</v>
+        <v>13.225288</v>
       </c>
       <c r="I4">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="J4">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.364959757269</v>
+        <v>17.76686133333333</v>
       </c>
       <c r="N4">
-        <v>16.364959757269</v>
+        <v>53.300584</v>
       </c>
       <c r="O4">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345857</v>
       </c>
       <c r="P4">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345858</v>
       </c>
       <c r="Q4">
-        <v>26.37145797973709</v>
+        <v>78.32395266313245</v>
       </c>
       <c r="R4">
-        <v>26.37145797973709</v>
+        <v>704.915573968192</v>
       </c>
       <c r="S4">
-        <v>0.01713186054247179</v>
+        <v>0.02720175308849758</v>
       </c>
       <c r="T4">
-        <v>0.01713186054247179</v>
+        <v>0.02720175308849758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.6114587735557</v>
+        <v>4.408429333333333</v>
       </c>
       <c r="H5">
-        <v>1.6114587735557</v>
+        <v>13.225288</v>
       </c>
       <c r="I5">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="J5">
-        <v>0.02399928100625144</v>
+        <v>0.05980478019486075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.105385253685506</v>
+        <v>0.1249006666666667</v>
       </c>
       <c r="N5">
-        <v>0.105385253685506</v>
+        <v>0.374702</v>
       </c>
       <c r="O5">
-        <v>0.004596965063974705</v>
+        <v>0.003197533029819349</v>
       </c>
       <c r="P5">
-        <v>0.004596965063974705</v>
+        <v>0.003197533029819349</v>
       </c>
       <c r="Q5">
-        <v>0.1698239916549018</v>
+        <v>0.5506157626862221</v>
       </c>
       <c r="R5">
-        <v>0.1698239916549018</v>
+        <v>4.955541864175999</v>
       </c>
       <c r="S5">
-        <v>0.0001103238563462495</v>
+        <v>0.0001912277600141533</v>
       </c>
       <c r="T5">
-        <v>0.0001103238563462495</v>
+        <v>0.0001912277600141533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.4987589527195</v>
+        <v>56.15338233333333</v>
       </c>
       <c r="H6">
-        <v>55.4987589527195</v>
+        <v>168.460147</v>
       </c>
       <c r="I6">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926449</v>
       </c>
       <c r="J6">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926448</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.99005198478535</v>
+        <v>19.68532233333334</v>
       </c>
       <c r="N6">
-        <v>4.99005198478535</v>
+        <v>59.055967</v>
       </c>
       <c r="O6">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="P6">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="Q6">
-        <v>276.9416922651417</v>
+        <v>1105.397431338572</v>
       </c>
       <c r="R6">
-        <v>276.9416922651417</v>
+        <v>9948.576882047149</v>
       </c>
       <c r="S6">
-        <v>0.1799114199119395</v>
+        <v>0.3839023308904689</v>
       </c>
       <c r="T6">
-        <v>0.1799114199119395</v>
+        <v>0.3839023308904689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.4987589527195</v>
+        <v>56.15338233333333</v>
       </c>
       <c r="H7">
-        <v>55.4987589527195</v>
+        <v>168.460147</v>
       </c>
       <c r="I7">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926449</v>
       </c>
       <c r="J7">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926448</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.46456593499559</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N7">
-        <v>1.46456593499559</v>
+        <v>4.453463</v>
       </c>
       <c r="O7">
-        <v>0.06388520406425827</v>
+        <v>0.03800378711503639</v>
       </c>
       <c r="P7">
-        <v>0.06388520406425827</v>
+        <v>0.0380037871150364</v>
       </c>
       <c r="Q7">
-        <v>81.28159179668449</v>
+        <v>83.35900351545122</v>
       </c>
       <c r="R7">
-        <v>81.28159179668449</v>
+        <v>750.231031639061</v>
       </c>
       <c r="S7">
-        <v>0.05280348535909052</v>
+        <v>0.02895041624218024</v>
       </c>
       <c r="T7">
-        <v>0.05280348535909052</v>
+        <v>0.02895041624218024</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.4987589527195</v>
+        <v>56.15338233333333</v>
       </c>
       <c r="H8">
-        <v>55.4987589527195</v>
+        <v>168.460147</v>
       </c>
       <c r="I8">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926449</v>
       </c>
       <c r="J8">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926448</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.364959757269</v>
+        <v>17.76686133333333</v>
       </c>
       <c r="N8">
-        <v>16.364959757269</v>
+        <v>53.300584</v>
       </c>
       <c r="O8">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345857</v>
       </c>
       <c r="P8">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345858</v>
       </c>
       <c r="Q8">
-        <v>908.2349568396271</v>
+        <v>997.6693573139831</v>
       </c>
       <c r="R8">
-        <v>908.2349568396271</v>
+        <v>8979.024215825848</v>
       </c>
       <c r="S8">
-        <v>0.5900225399873589</v>
+        <v>0.3464885848947869</v>
       </c>
       <c r="T8">
-        <v>0.5900225399873589</v>
+        <v>0.3464885848947869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.4987589527195</v>
+        <v>56.15338233333333</v>
       </c>
       <c r="H9">
-        <v>55.4987589527195</v>
+        <v>168.460147</v>
       </c>
       <c r="I9">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926449</v>
       </c>
       <c r="J9">
-        <v>0.8265370070036668</v>
+        <v>0.7617771395926448</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.105385253685506</v>
+        <v>0.1249006666666667</v>
       </c>
       <c r="N9">
-        <v>0.105385253685506</v>
+        <v>0.374702</v>
       </c>
       <c r="O9">
-        <v>0.004596965063974705</v>
+        <v>0.003197533029819349</v>
       </c>
       <c r="P9">
-        <v>0.004596965063974705</v>
+        <v>0.003197533029819349</v>
       </c>
       <c r="Q9">
-        <v>5.848750791463091</v>
+        <v>7.013594889021555</v>
       </c>
       <c r="R9">
-        <v>5.848750791463091</v>
+        <v>63.122354001194</v>
       </c>
       <c r="S9">
-        <v>0.003799561745278072</v>
+        <v>0.002435807565208787</v>
       </c>
       <c r="T9">
-        <v>0.003799561745278072</v>
+        <v>0.002435807565208787</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.260482316014</v>
+        <v>2.790021666666667</v>
       </c>
       <c r="H10">
-        <v>1.260482316014</v>
+        <v>8.370065</v>
       </c>
       <c r="I10">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141002</v>
       </c>
       <c r="J10">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141001</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.99005198478535</v>
+        <v>19.68532233333334</v>
       </c>
       <c r="N10">
-        <v>4.99005198478535</v>
+        <v>59.055967</v>
       </c>
       <c r="O10">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="P10">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="Q10">
-        <v>6.289872282812496</v>
+        <v>54.92247582531723</v>
       </c>
       <c r="R10">
-        <v>6.289872282812496</v>
+        <v>494.3022824278551</v>
       </c>
       <c r="S10">
-        <v>0.004086130348268923</v>
+        <v>0.01907446669392217</v>
       </c>
       <c r="T10">
-        <v>0.004086130348268923</v>
+        <v>0.01907446669392217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.260482316014</v>
+        <v>2.790021666666667</v>
       </c>
       <c r="H11">
-        <v>1.260482316014</v>
+        <v>8.370065</v>
       </c>
       <c r="I11">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141002</v>
       </c>
       <c r="J11">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141001</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.46456593499559</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N11">
-        <v>1.46456593499559</v>
+        <v>4.453463</v>
       </c>
       <c r="O11">
-        <v>0.06388520406425827</v>
+        <v>0.03800378711503639</v>
       </c>
       <c r="P11">
-        <v>0.06388520406425827</v>
+        <v>0.0380037871150364</v>
       </c>
       <c r="Q11">
-        <v>1.84605946169845</v>
+        <v>4.141752753899445</v>
       </c>
       <c r="R11">
-        <v>1.84605946169845</v>
+        <v>37.275774785095</v>
       </c>
       <c r="S11">
-        <v>0.001199267529130511</v>
+        <v>0.001438422499560708</v>
       </c>
       <c r="T11">
-        <v>0.001199267529130511</v>
+        <v>0.001438422499560708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.260482316014</v>
+        <v>2.790021666666667</v>
       </c>
       <c r="H12">
-        <v>1.260482316014</v>
+        <v>8.370065</v>
       </c>
       <c r="I12">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141002</v>
       </c>
       <c r="J12">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141001</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.364959757269</v>
+        <v>17.76686133333333</v>
       </c>
       <c r="N12">
-        <v>16.364959757269</v>
+        <v>53.300584</v>
       </c>
       <c r="O12">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345857</v>
       </c>
       <c r="P12">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345858</v>
       </c>
       <c r="Q12">
-        <v>20.62774237631833</v>
+        <v>49.56992806866223</v>
       </c>
       <c r="R12">
-        <v>20.62774237631833</v>
+        <v>446.12935261796</v>
       </c>
       <c r="S12">
-        <v>0.01340053348467329</v>
+        <v>0.01721553749639898</v>
       </c>
       <c r="T12">
-        <v>0.01340053348467329</v>
+        <v>0.01721553749639898</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.260482316014</v>
+        <v>2.790021666666667</v>
       </c>
       <c r="H13">
-        <v>1.260482316014</v>
+        <v>8.370065</v>
       </c>
       <c r="I13">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141002</v>
       </c>
       <c r="J13">
-        <v>0.01877222663207338</v>
+        <v>0.03784945156141001</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.105385253685506</v>
+        <v>0.1249006666666667</v>
       </c>
       <c r="N13">
-        <v>0.105385253685506</v>
+        <v>0.374702</v>
       </c>
       <c r="O13">
-        <v>0.004596965063974705</v>
+        <v>0.003197533029819349</v>
       </c>
       <c r="P13">
-        <v>0.004596965063974705</v>
+        <v>0.003197533029819349</v>
       </c>
       <c r="Q13">
-        <v>0.1328362486392295</v>
+        <v>0.3484755661811111</v>
       </c>
       <c r="R13">
-        <v>0.1328362486392295</v>
+        <v>3.13628009563</v>
       </c>
       <c r="S13">
-        <v>8.629527000065684E-05</v>
+        <v>0.0001210248715281561</v>
       </c>
       <c r="T13">
-        <v>8.629527000065684E-05</v>
+        <v>0.0001210248715281561</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.775427091100349</v>
+        <v>10.36182833333333</v>
       </c>
       <c r="H14">
-        <v>8.775427091100349</v>
+        <v>31.085485</v>
       </c>
       <c r="I14">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="J14">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.99005198478535</v>
+        <v>19.68532233333334</v>
       </c>
       <c r="N14">
-        <v>4.99005198478535</v>
+        <v>59.055967</v>
       </c>
       <c r="O14">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="P14">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="Q14">
-        <v>43.78983737328443</v>
+        <v>203.9759307043328</v>
       </c>
       <c r="R14">
-        <v>43.78983737328443</v>
+        <v>1835.783376338995</v>
       </c>
       <c r="S14">
-        <v>0.02844747482801508</v>
+        <v>0.0708404353248054</v>
       </c>
       <c r="T14">
-        <v>0.02844747482801508</v>
+        <v>0.07084043532480538</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.775427091100349</v>
+        <v>10.36182833333333</v>
       </c>
       <c r="H15">
-        <v>8.775427091100349</v>
+        <v>31.085485</v>
       </c>
       <c r="I15">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="J15">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.46456593499559</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N15">
-        <v>1.46456593499559</v>
+        <v>4.453463</v>
       </c>
       <c r="O15">
-        <v>0.06388520406425827</v>
+        <v>0.03800378711503639</v>
       </c>
       <c r="P15">
-        <v>0.06388520406425827</v>
+        <v>0.0380037871150364</v>
       </c>
       <c r="Q15">
-        <v>12.85219158266301</v>
+        <v>15.38200636495056</v>
       </c>
       <c r="R15">
-        <v>12.85219158266301</v>
+        <v>138.438057284555</v>
       </c>
       <c r="S15">
-        <v>0.008349252211557388</v>
+        <v>0.005342140238308413</v>
       </c>
       <c r="T15">
-        <v>0.008349252211557388</v>
+        <v>0.005342140238308413</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.775427091100349</v>
+        <v>10.36182833333333</v>
       </c>
       <c r="H16">
-        <v>8.775427091100349</v>
+        <v>31.085485</v>
       </c>
       <c r="I16">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="J16">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.364959757269</v>
+        <v>17.76686133333333</v>
       </c>
       <c r="N16">
-        <v>16.364959757269</v>
+        <v>53.300584</v>
       </c>
       <c r="O16">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345857</v>
       </c>
       <c r="P16">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345858</v>
       </c>
       <c r="Q16">
-        <v>143.6095111987053</v>
+        <v>184.0971671581378</v>
       </c>
       <c r="R16">
-        <v>143.6095111987053</v>
+        <v>1656.87450442324</v>
       </c>
       <c r="S16">
-        <v>0.09329397412608621</v>
+        <v>0.06393658025490223</v>
       </c>
       <c r="T16">
-        <v>0.09329397412608621</v>
+        <v>0.06393658025490222</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.775427091100349</v>
+        <v>10.36182833333333</v>
       </c>
       <c r="H17">
-        <v>8.775427091100349</v>
+        <v>31.085485</v>
       </c>
       <c r="I17">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="J17">
-        <v>0.1306914853580084</v>
+        <v>0.1405686286510843</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.105385253685506</v>
+        <v>0.1249006666666667</v>
       </c>
       <c r="N17">
-        <v>0.105385253685506</v>
+        <v>0.374702</v>
       </c>
       <c r="O17">
-        <v>0.004596965063974705</v>
+        <v>0.003197533029819349</v>
       </c>
       <c r="P17">
-        <v>0.004596965063974705</v>
+        <v>0.003197533029819349</v>
       </c>
       <c r="Q17">
-        <v>0.9248006101942723</v>
+        <v>1.294199266718889</v>
       </c>
       <c r="R17">
-        <v>0.9248006101942723</v>
+        <v>11.64779340047</v>
       </c>
       <c r="S17">
-        <v>0.0006007841923497262</v>
+        <v>0.0004494728330682525</v>
       </c>
       <c r="T17">
-        <v>0.0006007841923497262</v>
+        <v>0.0004494728330682525</v>
       </c>
     </row>
   </sheetData>
